--- a/Code/PerceptronFrontEnd/src/assets/DataFiles/EcoliDataset/Dataset II - Search Parameters EcoliDataset_CID.xlsx
+++ b/Code/PerceptronFrontEnd/src/assets/DataFiles/EcoliDataset/Dataset II - Search Parameters EcoliDataset_CID.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_PERCEPTRON\01_GitHub\PERCEPTRON\Code\PerceptronFrontEnd\src\assets\DataFiles\EcoliDataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01_PERCEPTRON\GitHub\Code\PerceptronFrontEnd\src\assets\DataFiles\EcoliDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31DF6CD-D7A0-480A-9A1D-102DB01A2CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE1808-BDB3-4025-84AF-EBE50F06A471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33315" yWindow="1920" windowWidth="22080" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Search Parameters with PST" sheetId="1" r:id="rId1"/>
+    <sheet name="Search Parameters with PST" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <r>
       <rPr>
@@ -79,9 +79,6 @@
     <t>Tolerance for Each PST Hop</t>
   </si>
   <si>
-    <t>PST Length</t>
-  </si>
-  <si>
     <t>Peptide Sequence Tag (PST) Search</t>
   </si>
   <si>
@@ -91,27 +88,12 @@
     <t>Mass Mode</t>
   </si>
   <si>
-    <t>Fixed/ Chemical Modifications</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Tool-Specific Parameters</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Unlimited</t>
-  </si>
-  <si>
-    <t>Minimum Mass</t>
-  </si>
-  <si>
-    <t>Maximum Mass</t>
-  </si>
-  <si>
     <t>500 Da</t>
   </si>
   <si>
@@ -119,9 +101,6 @@
   </si>
   <si>
     <t>Precursor Error</t>
-  </si>
-  <si>
-    <t>Maximum Modifications per Sequence</t>
   </si>
   <si>
     <t xml:space="preserve">None
@@ -242,6 +221,25 @@
   </si>
   <si>
     <t>b',b*,y',y*</t>
+  </si>
+  <si>
+    <t>Name of Database</t>
+  </si>
+  <si>
+    <t>Ecoli</t>
+  </si>
+  <si>
+    <t>PST Length 
+(Minimum to Maximum)</t>
+  </si>
+  <si>
+    <t>PTM Tolerance</t>
+  </si>
+  <si>
+    <t>Fixed Modifications</t>
+  </si>
+  <si>
+    <t>Chemical Modifications (Methionine / Cysteine)</t>
   </si>
 </sst>
 </file>
@@ -325,18 +323,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -351,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -360,191 +352,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -560,6 +370,90 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -571,89 +465,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -716,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -768,7 +614,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -969,230 +815,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534BF765-A65D-4FFE-B77D-17621219900A}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" s="11" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="25" t="s">
+    </row>
+    <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+    </row>
+    <row r="16" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="2:11" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C3:D3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Code/PerceptronFrontEnd/src/assets/DataFiles/EcoliDataset/Dataset II - Search Parameters EcoliDataset_CID.xlsx
+++ b/Code/PerceptronFrontEnd/src/assets/DataFiles/EcoliDataset/Dataset II - Search Parameters EcoliDataset_CID.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01_PERCEPTRON\GitHub\Code\PerceptronFrontEnd\src\assets\DataFiles\EcoliDataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE1808-BDB3-4025-84AF-EBE50F06A471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24042" windowHeight="11019"/>
   </bookViews>
   <sheets>
     <sheet name="Search Parameters with PST" sheetId="2" r:id="rId1"/>
@@ -25,11 +24,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>0.1 Da</t>
+  </si>
+  <si>
+    <t>Tolerance for Each PST Hop</t>
+  </si>
+  <si>
+    <t>Mass Mode</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>500 Da</t>
+  </si>
+  <si>
+    <t>15 ppm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None
+N-Terminal Methionine Excision Acetylation 
+N-Terminal Methionine Excision 
+N-Terminal Acetylation </t>
+  </si>
+  <si>
+    <t>Terminal Modifications</t>
+  </si>
+  <si>
+    <t>Variable Modifications</t>
+  </si>
+  <si>
+    <t>Truncated Proteoforms</t>
+  </si>
+  <si>
+    <t>Fragmentation Type</t>
+  </si>
+  <si>
+    <t>Filter Protein Database on Molecular Weight (MS1)</t>
+  </si>
+  <si>
+    <t>Special Ions</t>
+  </si>
+  <si>
+    <t>PTM Tolerance</t>
+  </si>
+  <si>
+    <t>Fixed Modifications</t>
+  </si>
+  <si>
+    <t>b',b*,y',y*</t>
+  </si>
+  <si>
+    <t>PTM: post-translational Modification</t>
+  </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -40,7 +102,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -51,7 +113,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -61,82 +123,49 @@
     </r>
   </si>
   <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>Disabled</t>
-  </si>
-  <si>
-    <t>Blind Post-Translational Modification (PTM) Search</t>
-  </si>
-  <si>
-    <t>Tolerance for PST</t>
-  </si>
-  <si>
-    <t>0.1 Da</t>
-  </si>
-  <si>
-    <t>Tolerance for Each PST Hop</t>
-  </si>
-  <si>
-    <t>Peptide Sequence Tag (PST) Search</t>
+    <t>Protein Database</t>
+  </si>
+  <si>
+    <t>Intact Mass (Precursor Ion) Tolerance</t>
+  </si>
+  <si>
+    <t>Peptide (Fragment) Tolerance</t>
+  </si>
+  <si>
+    <t>PST Filter</t>
+  </si>
+  <si>
+    <t>PST: Peptide Sequence Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PST Length Range </t>
+  </si>
+  <si>
+    <t>Overall Tolerance for PST</t>
+  </si>
+  <si>
+    <t>Blind-PTM Search</t>
+  </si>
+  <si>
+    <t>Chemical Modifications (Methionine/ Cysteine)</t>
+  </si>
+  <si>
+    <t>Scoring Components Weight</t>
   </si>
   <si>
     <t>MH+</t>
   </si>
   <si>
-    <t>Mass Mode</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>500 Da</t>
-  </si>
-  <si>
-    <t>15 ppm</t>
-  </si>
-  <si>
-    <t>Precursor Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None
-N-Terminal Methionine Excision Acetylation 
-N-Terminal Methionine Excision 
-N-Terminal Acetylation </t>
-  </si>
-  <si>
-    <t>Terminal Modifications</t>
-  </si>
-  <si>
-    <t>Variable Modifications</t>
-  </si>
-  <si>
-    <t>Fragment Tolerance</t>
-  </si>
-  <si>
-    <t>Truncated Proteoforms</t>
-  </si>
-  <si>
-    <t>Scoring Components</t>
-  </si>
-  <si>
-    <t>2 to 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case Study II - Search Parameters </t>
-  </si>
-  <si>
-    <t>Fragmentation Type</t>
-  </si>
-  <si>
-    <t>Filter Protein Database on Molecular Weight (MS1)</t>
-  </si>
-  <si>
-    <t>Special Ions</t>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>Case Study II - Search Parameters</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Minimum: 2;                                                     Maximum: 6</t>
   </si>
   <si>
     <r>
@@ -156,7 +185,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> w</t>
+      <t xml:space="preserve">                                                                  w</t>
     </r>
     <r>
       <rPr>
@@ -216,63 +245,15 @@
       <t>=100</t>
     </r>
   </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>b',b*,y',y*</t>
-  </si>
-  <si>
-    <t>Name of Database</t>
-  </si>
-  <si>
-    <t>Ecoli</t>
-  </si>
-  <si>
-    <t>PST Length 
-(Minimum to Maximum)</t>
-  </si>
-  <si>
-    <t>PTM Tolerance</t>
-  </si>
-  <si>
-    <t>Fixed Modifications</t>
-  </si>
-  <si>
-    <t>Chemical Modifications (Methionine / Cysteine)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,6 +300,48 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -352,6 +375,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -359,22 +393,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -465,41 +484,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -815,187 +840,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534BF765-A65D-4FFE-B77D-17621219900A}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.05" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:3" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="19.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31.3" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="31.3" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="31.3" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="62.65" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="31.3" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="33.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="2:4" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="2:4" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
